--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31562A3C-845C-4BC7-9345-162BD30598CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55174771-EA65-4777-858A-AAE22F2E6E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,23 +20,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>paradigm</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>tankPath</t>
   </si>
   <si>
     <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
+  </si>
+  <si>
+    <t>Exported</t>
   </si>
 </sst>
 </file>
@@ -84,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -121,45 +154,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,752 +519,771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="50.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39" style="9" customWidth="1"/>
+    <col min="1" max="1" width="52.25" style="4" customWidth="true"/>
+    <col min="2" max="2" width="34.5" style="1" customWidth="true"/>
+    <col min="3" max="3" width="8.875" style="9" customWidth="true"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="40.95" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
+      <c r="C3" s="8">
+        <v>1</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
+    </row>
+    <row r="4" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="2:2" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3"/>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3"/>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3"/>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3"/>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3"/>
-    <row r="241" x14ac:dyDescent="0.3"/>
-    <row r="242" x14ac:dyDescent="0.3"/>
-    <row r="243" x14ac:dyDescent="0.3"/>
-    <row r="244" x14ac:dyDescent="0.3"/>
-    <row r="245" x14ac:dyDescent="0.3"/>
-    <row r="246" x14ac:dyDescent="0.3"/>
-    <row r="247" x14ac:dyDescent="0.3"/>
-    <row r="248" x14ac:dyDescent="0.3"/>
-    <row r="249" x14ac:dyDescent="0.3"/>
-    <row r="250" x14ac:dyDescent="0.3"/>
+    <row r="234" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55174771-EA65-4777-858A-AAE22F2E6E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75CA339-C018-4CE0-B0C4-1531AE1671F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
@@ -34,39 +40,82 @@
     <t>tankPath</t>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
     <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
   </si>
   <si>
     <t>Exported</t>
   </si>
   <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
+  </si>
+  <si>
     <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
   </si>
   <si>
     <t>Exported</t>
@@ -117,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,11 +239,12 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +289,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,69 +570,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.25" style="4" customWidth="true"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="true"/>
-    <col min="3" max="3" width="8.875" style="9" customWidth="true"/>
+    <col min="1" max="1" width="52.84375" style="4" customWidth="true"/>
+    <col min="2" max="2" width="35.84375" style="1" customWidth="true"/>
+    <col min="3" max="3" width="9.51171875" style="9" customWidth="true"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="true" ht="40.95" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
+    <row r="3" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9">
+    <row r="4" s="2" customFormat="true" ht="40.95" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+    <row r="5" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -1264,10 +1331,12 @@
     <row r="233" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="234" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="235" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="B235" s="6"/>
+    </row>
     <row r="236" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="237" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="238" ht="13.8" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1353,7 @@
     <row r="249" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="250" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="251" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75CA339-C018-4CE0-B0C4-1531AE1671F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F9407-F9D5-4805-8528-C083E35D4C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+  <si>
+    <t>paradigm</t>
+  </si>
   <si>
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
   </si>
@@ -28,6 +31,27 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
   </si>
   <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -40,25 +64,22 @@
     <t>tankPath</t>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
+  </si>
+  <si>
     <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
   </si>
   <si>
     <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
+  </si>
+  <si>
     <t>Exported</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>paradigm</t>
@@ -166,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,11 +261,12 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +312,7 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -586,21 +609,21 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -608,10 +631,10 @@
     </row>
     <row r="3" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -619,10 +642,10 @@
     </row>
     <row r="4" s="2" customFormat="true" ht="40.95" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
@@ -630,10 +653,10 @@
     </row>
     <row r="5" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -641,10 +664,10 @@
     </row>
     <row r="6" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F9407-F9D5-4805-8528-C083E35D4C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB486E1A-D5C4-46F9-9216-29320CD4BAEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>paradigm</t>
   </si>
@@ -31,6 +31,9 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -49,97 +52,22 @@
     <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20230204\Block-3</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
-  </si>
-  <si>
-    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
-  </si>
-  <si>
-    <t>Exported</t>
+    <t>Patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchIssue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankIssue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -187,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -259,60 +187,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -593,790 +518,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.84375" style="4" customWidth="true"/>
-    <col min="2" max="2" width="35.84375" style="1" customWidth="true"/>
-    <col min="3" max="3" width="9.51171875" style="9" customWidth="true"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="52.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="true" ht="40.95" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="D5" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="2:2" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/MSTI/ME_MSTIRecording_CC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB486E1A-D5C4-46F9-9216-29320CD4BAEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE49D8-D369-40E4-AB2E-B704B44BCDAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+  <si>
+    <t>bankIssue</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
@@ -34,6 +37,12 @@
     <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
   </si>
   <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -55,19 +64,93 @@
     <t>G:\ECOG\chouchou\cc20230204\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20230208\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230209\Block-3</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
     <t>Patch</t>
+  </si>
+  <si>
+    <t>matchIssue</t>
+  </si>
+  <si>
+    <t>bankIssue</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-600_Dur-400_StdN-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>G:\ECOG\chouchou\cc20230210\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800-800-650_Dur-300-150-150</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-800_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-500_Dur-300_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-400_Dur-200_StdN-15</t>
+  </si>
+  <si>
+    <t>MSTI_BG-5_S1-4o5_S2-4_ISI-600_Dur-400_StdN-15</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221207\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221208\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20221209\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230131\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230204\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230208\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230209\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\chouchou\cc20230210\Block-3</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
     <t>matchIssue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bankIssue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -115,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -187,57 +270,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,799 +605,832 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="52.84375" style="4" customWidth="true"/>
+    <col min="2" max="2" width="35.84375" style="1" customWidth="true"/>
+    <col min="3" max="3" width="9.51171875" style="9" customWidth="true"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="true"/>
     <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" s="2" customFormat="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="40.95" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="40.95" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" thickBot="true" x14ac:dyDescent="0.3">
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="2:2" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
